--- a/interface.xlsx
+++ b/interface.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>zbin429.koreasouth.cloudapp.azure.com</t>
   </si>
@@ -137,18 +137,9 @@
     <t>"sell" 或者 "lease"</t>
   </si>
   <si>
-    <t>返回结果</t>
-  </si>
-  <si>
     <t>[{"slideId":"4db9676b065c4ce0a646bab713180fa9","slideSeq":1,"slideUrl":"/images/470d1afa3112403385acd2e8809c5f1d","activityUrl":null},{"slideId":"83dcf7c44c104694b129fdee0b4038cd","slideSeq":2,"slideUrl":"/images/949482064efd483ab01ffad37d35ba72","activityUrl":null},{"slideId":"fa60d1a5954649f3918272044cd07012","slideSeq":3,"slideUrl":"/images/94051d25540e45eeb1da1f7922df6baa","activityUrl":null}]</t>
   </si>
   <si>
-    <t>{"leaseProdCate":[{"productCategoryCode":"PDCT","productCategoryName":"呼吸机","prodList":[]},{"productCategoryCode":"PDCT","productCategoryName":"护理床","prodList":[{"prodInfo":{"productId":"89B2E864-65C9-31FF-348B-151C8883121E","productName":"五功能经典电动护理床","productCategoryCode":"PDCT-00002","productBrandCode":"PDBD-00001","productTypeCode":"PDTP-00003","stock":30,"carriage":null,"service":220.00,"weight":400,"description":"电动护理床","leaseFlag":true,"leaseMinDays":30,"bail":3000.00,"listingFlag":true,"saleStartId":"89B2E864-65C9-31FF-348B-151C8883121E","saleStartTime":1528970102000,"saleEndId":"079E7563-3793-6ED2-BB5F-FAF534A121D9","saleEndTime":1529661319000,"introduceUrl":null,"descriptionUrl":null},"minProdPrice":{"productPriceId":"29B9FB25-7067-C20B-8F0E-E826282E287D","productId":"89B2E864-65C9-31FF-348B-151C8883121E","gear":2,"days":60,"realPrice":10.00,"originPrice":15.00}}]},{"productCategoryCode":"PDCT","productCategoryName":"配件","prodList":[]}],"sellProdCate":[{"productCategoryCode":"PDCT","productCategoryName":"呼吸机","prodList":[]},{"productCategoryCode":"PDCT","productCategoryName":"护理床","prodList":[]},{"productCategoryCode":"PDCT","productCategoryName":"配件","prodList":[]}]}</t>
-  </si>
-  <si>
-    <t>oxACBv71e26bgJnOzjXYy-fPAbMM</t>
-  </si>
-  <si>
     <t>openid</t>
   </si>
   <si>
@@ -164,10 +155,32 @@
     <t>个人</t>
   </si>
   <si>
-    <t>个人信息</t>
-  </si>
-  <si>
     <t>{"subscribe":1,"openid":"oxACBv71e26bgJnOzjXYy-fPAbMM","nickname":"\uD83C\uDF40渝\uD83C\uDF40","sex":1,"language":"zh_CN","city":"闵行","province":"上海","country":"中国","headimgurl":"http://thirdwx.qlogo.cn/mmopen/PiajxSqBRaEJbeAWH9fTsYngrBGkoMykIk26S6nVwic0boicqWib9nt7Fme1mWMJ9QNWCMwleCnX1A9iaKLoz3KvsGw/132","subscribe_time":1502276461,"unionid":null,"remark":"","groupid":101,"tagid_list":[101],"subscribe_scene":"ADD_SCENE_PROFILE_CARD","qr_scene":"0","qr_scene_str":""}</t>
+  </si>
+  <si>
+    <t>{"leaseProdCate":[{"productCategoryCode":"PDCT","productCategoryName":"呼吸机","prodList":[]},{"productCategoryCode":"PDCT","productCategoryName":"护理床","prodList":[{"prodInfo":{"productId":"89B2E864-65C9-31FF-348B-151C8883121E","productName":"五功能经典电动护理床","productCategoryCode":"PDCT-00002","productBrandCode":"PDBD-00001","productTypeCode":"PDTP-00003","stock":30,"carriage":null,"service":220.00,"weight":400,"description":"电动护理床","leaseFlag":true,"leaseMinDays":30,"bail":3000.00,"listingFlag":true,"saleStartId":"89B2E864-65C9-31FF-348B-151C8883121E","saleStartTime":1528970102000,"saleEndId":"079E7563-3793-6ED2-BB5F-FAF534A121D9","saleEndTime":1535795719000,"introduceUrl":"http://www.qiaolh.com/upload/201803/16/201803161628308951.png","descriptionUrl":"http://www.qiaolh.com/upload/201803/16/201803161626439732.png"},"minProdPrice":{"productPriceId":"29B9FB25-7067-C20B-8F0E-E826282E287D","productId":"89B2E864-65C9-31FF-348B-151C8883121E","gear":2,"days":60,"realPrice":10.00,"originPrice":15.00},"frontCoverImage":{"productImgId":"C5E995F6-7E1F-460E-8A51-1936B1DBB35D","productId":"89B2E864-65C9-31FF-348B-151C8883121E","frontCoverFlag":true,"seqNo":1,"isImg":true,"url":"/images/484afeb9ab4445509d010c353e3e9479"}}]},{"productCategoryCode":"PDCT","productCategoryName":"配件","prodList":[]}],"sellProdCate":[{"productCategoryCode":"PDCT","productCategoryName":"呼吸机","prodList":[]},{"productCategoryCode":"PDCT","productCategoryName":"护理床","prodList":[]},{"productCategoryCode":"PDCT","productCategoryName":"配件","prodList":[]}]}</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>产品列表传回的productId</t>
+  </si>
+  <si>
+    <t>{"productInfo":{"productId":"89B2E864-65C9-31FF-348B-151C8883121E","productName":"五功能经典电动护理床","productCategoryCode":"PDCT-00002","productBrandCode":"PDBD-00001","productTypeCode":"PDTP-00003","stock":30,"carriage":null,"service":220.00,"weight":400,"description":"电动护理床","leaseFlag":true,"leaseMinDays":30,"bail":3000.00,"listingFlag":true,"saleStartId":"89B2E864-65C9-31FF-348B-151C8883121E","saleStartTime":1528970102000,"saleEndId":"079E7563-3793-6ED2-BB5F-FAF534A121D9","saleEndTime":1535795719000,"introduceUrl":"http://www.qiaolh.com/upload/201803/16/201803161628308951.png","descriptionUrl":"http://www.qiaolh.com/upload/201803/16/201803161626439732.png"},"commentCount":0,"lastestComment":null,"extendList":[],"imageList":[{"productImgId":"C5E995F6-7E1F-460E-8A51-1936B1DBB35D","productId":"89B2E864-65C9-31FF-348B-151C8883121E","frontCoverFlag":true,"seqNo":1,"isImg":true,"url":"/images/484afeb9ab4445509d010c353e3e9479"}],"priceList":[{"productPriceId":"05C57750-FC7D-C7C7-7ABD-914ED3501A48","productId":"89B2E864-65C9-31FF-348B-151C8883121E","gear":1,"days":30,"realPrice":15.00,"originPrice":20.00},{"productPriceId":"29B9FB25-7067-C20B-8F0E-E826282E287D","productId":"89B2E864-65C9-31FF-348B-151C8883121E","gear":2,"days":60,"realPrice":10.00,"originPrice":15.00}]}</t>
+  </si>
+  <si>
+    <t>产品详情</t>
+  </si>
+  <si>
+    <t>评价列表</t>
+  </si>
+  <si>
+    <t>产品推荐</t>
+  </si>
+  <si>
+    <t>个人信息
+From DB</t>
   </si>
 </sst>
 </file>
@@ -197,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -255,18 +268,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -274,15 +343,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -589,207 +711,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <f>$A$1 &amp; "/store/slide/list"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/store/slide/list</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="str">
+        <f>$A$1 &amp; "/store/slide/list"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/slide/list</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C6" s="6" t="str">
         <f>$A$1 &amp; "/store/prod/list"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/list</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15" t="str">
+        <f>$A$1 &amp; "/store/prod/list?search=&amp;scope="</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/list?search=&amp;scope=</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f xml:space="preserve"> $A$1 &amp; "/store/prod/detail/{id}"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/detail/{id}</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="4" t="str">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="str">
+        <f xml:space="preserve"> $A$1 &amp; "/store/prod/detail/89B2E864-65C9-31FF-348B-151C8883121E"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/detail/89B2E864-65C9-31FF-348B-151C8883121E</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3" t="str">
         <f>$A$1 &amp; "/wechat/user_db"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/wechat/user_db</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="15" t="str">
+        <f>$A$1 &amp; "/wechat/user_db?openid=oxACBv71e26bgJnOzjXYy-fPAbMM"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/wechat/user_db?openid=oxACBv71e26bgJnOzjXYy-fPAbMM</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="4" t="str">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="str">
         <f>$A$1 &amp; "/wechat/user_wx"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/wechat/user_wx</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="15" t="str">
+        <f>$A$1 &amp; "/wechat/user_wx?openid=oxACBv71e26bgJnOzjXYy-fPAbMM"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/wechat/user_wx?openid=oxACBv71e26bgJnOzjXYy-fPAbMM</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
+  <mergeCells count="23">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -824,10 +1139,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -838,8 +1153,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -848,8 +1163,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
@@ -858,10 +1173,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -872,8 +1187,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -882,8 +1197,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>

--- a/interface.xlsx
+++ b/interface.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>zbin429.koreasouth.cloudapp.azure.com</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>详情</t>
-  </si>
-  <si>
-    <t>产品列表传回的productId</t>
   </si>
   <si>
     <t>{"productInfo":{"productId":"89B2E864-65C9-31FF-348B-151C8883121E","productName":"五功能经典电动护理床","productCategoryCode":"PDCT-00002","productBrandCode":"PDBD-00001","productTypeCode":"PDTP-00003","stock":30,"carriage":null,"service":220.00,"weight":400,"description":"电动护理床","leaseFlag":true,"leaseMinDays":30,"bail":3000.00,"listingFlag":true,"saleStartId":"89B2E864-65C9-31FF-348B-151C8883121E","saleStartTime":1528970102000,"saleEndId":"079E7563-3793-6ED2-BB5F-FAF534A121D9","saleEndTime":1535795719000,"introduceUrl":"http://www.qiaolh.com/upload/201803/16/201803161628308951.png","descriptionUrl":"http://www.qiaolh.com/upload/201803/16/201803161626439732.png"},"commentCount":0,"lastestComment":null,"extendList":[],"imageList":[{"productImgId":"C5E995F6-7E1F-460E-8A51-1936B1DBB35D","productId":"89B2E864-65C9-31FF-348B-151C8883121E","frontCoverFlag":true,"seqNo":1,"isImg":true,"url":"/images/484afeb9ab4445509d010c353e3e9479"}],"priceList":[{"productPriceId":"05C57750-FC7D-C7C7-7ABD-914ED3501A48","productId":"89B2E864-65C9-31FF-348B-151C8883121E","gear":1,"days":30,"realPrice":15.00,"originPrice":20.00},{"productPriceId":"29B9FB25-7067-C20B-8F0E-E826282E287D","productId":"89B2E864-65C9-31FF-348B-151C8883121E","gear":2,"days":60,"realPrice":10.00,"originPrice":15.00}]}</t>
@@ -181,6 +178,34 @@
   <si>
     <t>个人信息
 From DB</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>个人信息
+From WX</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>[{"viewId":null,"customerId":null,"productId":"89B2E864-65C9-31FF-348B-151C8883121E","isHistory":null,"viewTime":null,"viewCount":1}]</t>
+  </si>
+  <si>
+    <t>prodid</t>
+  </si>
+  <si>
+    <t>[{"productCommentId":"391BC0D4-93E1-45B8-AF2A-5C4065A19366","orderId":"B77367CD-E2B6-450D-8B58-55A2D4C806E5","productId":"89B2E864-65C9-31FF-348B-151C8883121E","commentContent":"非常好用","commentLevel":5.0,"imgUrl":null,"commentReply":"感谢您的评论","createTime":1529738685000,"updateTime":1529738685000}]</t>
   </si>
 </sst>
 </file>
@@ -210,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -234,7 +259,72 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -246,9 +336,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -259,9 +347,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -273,57 +359,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -331,81 +367,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,400 +760,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="64.109375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="64.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="str">
         <f>$A$1 &amp; "/store/slide/list"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/store/slide/list</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="str">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="str">
         <f>$A$1 &amp; "/store/slide/list"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/store/slide/list</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="18" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="str">
         <f>$A$1 &amp; "/store/prod/list"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/list</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="15" t="str">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="9" t="str">
         <f>$A$1 &amp; "/store/prod/list?search=&amp;scope="</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/list?search=&amp;scope=</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="18" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="str">
+      <c r="B13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="27" t="str">
         <f xml:space="preserve"> $A$1 &amp; "/store/prod/detail/{id}"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/detail/{id}</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <f xml:space="preserve"> $A$1 &amp; "/store/prod/detail/89B2E864-65C9-31FF-348B-151C8883121E?openid=oxACBv71e26bgJnOzjXYy-fPAbMM"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/detail/89B2E864-65C9-31FF-348B-151C8883121E?openid=oxACBv71e26bgJnOzjXYy-fPAbMM</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="str">
-        <f xml:space="preserve"> $A$1 &amp; "/store/prod/detail/89B2E864-65C9-31FF-348B-151C8883121E"</f>
-        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/detail/89B2E864-65C9-31FF-348B-151C8883121E</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="7" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="27" t="str">
+        <f xml:space="preserve"> $A$1 &amp; "/store/prod/favorite"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/favorite</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f xml:space="preserve"> $A$1 &amp; "/store/prod/favorite?openid=oxACBv71e26bgJnOzjXYy-fPAbMM&amp;limit=4"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/favorite?openid=oxACBv71e26bgJnOzjXYy-fPAbMM&amp;limit=4</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f xml:space="preserve"> $A$1 &amp; "/store/prod/comment"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/comment</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f xml:space="preserve"> $A$1 &amp; "/store/prod/comment?prodid=89B2E864-65C9-31FF-348B-151C8883121E&amp;offset=1&amp;limit=1"</f>
+        <v>zbin429.koreasouth.cloudapp.azure.com/store/prod/comment?prodid=89B2E864-65C9-31FF-348B-151C8883121E&amp;offset=1&amp;limit=1</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="D26" s="2" t="str">
         <f>$A$1 &amp; "/wechat/user_db"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/wechat/user_db</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="15" t="str">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="9" t="str">
         <f>$A$1 &amp; "/wechat/user_db?openid=oxACBv71e26bgJnOzjXYy-fPAbMM"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/wechat/user_db?openid=oxACBv71e26bgJnOzjXYy-fPAbMM</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="18" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="24" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="D29" s="2" t="str">
         <f>$A$1 &amp; "/wechat/user_wx"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/wechat/user_wx</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="15" t="str">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="9" t="str">
         <f>$A$1 &amp; "/wechat/user_wx?openid=oxACBv71e26bgJnOzjXYy-fPAbMM"</f>
         <v>zbin429.koreasouth.cloudapp.azure.com/wechat/user_wx?openid=oxACBv71e26bgJnOzjXYy-fPAbMM</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="18" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C4:G4"/>
+  <mergeCells count="35">
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="D12:H12"/>
     <mergeCell ref="B6:B12"/>
-    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="D11:H11"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C6:C10"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1139,10 +1367,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1153,8 +1381,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,8 +1391,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1173,10 +1401,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1187,8 +1415,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1197,8 +1425,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
